--- a/02_MasterWifoMannheim/99_Backup/Course60.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course60.xlsx
@@ -1,139 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D0DB4B639A2011595BA8756C05F99F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92FE4995-1B39-432B-8EC6-C8C151792E1A}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Modul</t>
-  </si>
-  <si>
-    <t>TAX 611 Fallstudien zur internationalen Unternehmensbesteuerung</t>
-  </si>
-  <si>
-    <t>Lerninhalte</t>
-  </si>
-  <si>
-    <t> Grundprinzipien des internationalen Steuerrechts,  Besteuerung von Inlandstätigkeiten von Ausländern (Inbound-Investitionen)  Besteuerung von deutschen Auslandsinvestitionen (Outbound-Investitionen)  Spezialfragen in multinationalen Unternehmen  Neue Tendenzen im internationalen Unternehmenssteuerreform und aktuellen Gestaltungen.</t>
-  </si>
-  <si>
-    <t>Lern- und Qualifikationsziele</t>
-  </si>
-  <si>
-    <t>Die Teilnehmer erkennen die Bedeutung internationaler multinationales Unternehmen (Nutzung von Verbesserung der Gesamtsteuerposition). Die Teilnehmer üben anhand von Fallstudien die ABesteuerungsregeln und können Interdependenzen der Verhältnis zu nicht steuerlichen Einflussfaktoren beurteilen Die Teilnehmer lernen einen pro-aktiven Umgang mit dem grenzüberschreitenden Steuerrecht.</t>
-  </si>
-  <si>
-    <t>Voraussetzungen</t>
-  </si>
-  <si>
-    <t>Anmeldepflicht</t>
-  </si>
-  <si>
-    <t>Weitere Infos zur Anmeldung:</t>
-  </si>
-  <si>
-    <t>LehrveranstaltungenPräsenzstudium Selbststudium Vorlesung 2 6</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Prüfungsform und -umfang</t>
-  </si>
-  <si>
-    <t>Schriftliche Klausur (45 Min.)</t>
-  </si>
-  <si>
-    <t>Vorleistungen</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Dozent(en)/Modulverantwortlicher</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Stefan Brunsbach (Dozent) / Prof. Dr. Christoph Spengel (Modulverantwortlicher)</t>
-  </si>
-  <si>
-    <t>Dauer des Moduls</t>
-  </si>
-  <si>
-    <t>1 Semester</t>
-  </si>
-  <si>
-    <t>Angebotsturnus</t>
-  </si>
-  <si>
-    <t>FWS</t>
-  </si>
-  <si>
-    <t>Sprache</t>
-  </si>
-  <si>
-    <t>Deutsch</t>
-  </si>
-  <si>
-    <t>Programmspezifische Lernziele</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>benotet</t>
-  </si>
-  <si>
-    <t>Verwendbarkeit</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. Wipäd, M.Sc. Wirt. Inf., LL.M., M.Sc. VWL</t>
-  </si>
-  <si>
-    <t>TAX 520, TAX 530</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,143 +420,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Modul</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TAX 611 Fallstudien zur internationalen Unternehmensbesteuerung</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lerninhalte</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t> Grundprinzipien des internationalen Steuerrechts,  Besteuerung von Inlandstätigkeiten von Ausländern (Inbound-Investitionen)  Besteuerung von deutschen Auslandsinvestitionen (Outbound-Investitionen)  Spezialfragen in multinationalen Unternehmen  Neue Tendenzen im internationalen Unternehmenssteuerreform und aktuellen Gestaltungen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lern- und Qualifikationsziele</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Die Teilnehmer erkennen die Bedeutung internationaler multinationales Unternehmen (Nutzung von Verbesserung der Gesamtsteuerposition). Die Teilnehmer üben anhand von Fallstudien die ABesteuerungsregeln und können Interdependenzen der Verhältnis zu nicht steuerlichen Einflussfaktoren beurteilen Die Teilnehmer lernen einen pro-aktiven Umgang mit dem grenzüberschreitenden Steuerrecht.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Voraussetzungen</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TAX 520, TAX 530</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Anmeldepflicht</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Weitere Infos zur Anmeldung:</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LehrveranstaltungenPräsenzstudium Selbststudium Vorlesung 2 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Prüfungsform und -umfang</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Schriftliche Klausur (45 Min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Vorleistungen</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dozent(en)/Modulverantwortlicher</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Stefan Brunsbach (Dozent) / Prof. Dr. Christoph Spengel (Modulverantwortlicher)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dauer des Moduls</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sprache</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Deutsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Programmspezifische Lernziele</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>benotet</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Verwendbarkeit</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. Wipäd, M.Sc. Wirt. Inf., LL.M., M.Sc. VWL</t>
+        </is>
       </c>
     </row>
   </sheetData>
